--- a/data/trans_orig/P36B07-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>291818</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>260806</v>
+        <v>259690</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>321681</v>
+        <v>319563</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2606367736099192</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2329382345234444</v>
+        <v>0.2319420135757088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2873089364153807</v>
+        <v>0.2854171130482455</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>301</v>
@@ -762,19 +762,19 @@
         <v>320153</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>291295</v>
+        <v>289750</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>353766</v>
+        <v>352754</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2556564996069092</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2326122600785348</v>
+        <v>0.2313779752264753</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2824977746744742</v>
+        <v>0.2816895483773654</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>577</v>
@@ -783,19 +783,19 @@
         <v>611971</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>567241</v>
+        <v>565779</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>655454</v>
+        <v>653896</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2580073802047381</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2391490890464941</v>
+        <v>0.2385324941673925</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2763396428173456</v>
+        <v>0.2756827341909274</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>219778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>194318</v>
+        <v>192716</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>249354</v>
+        <v>247820</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1962941054906225</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1735553283387107</v>
+        <v>0.1721240799743765</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2227100653590049</v>
+        <v>0.2213397532923199</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>222</v>
@@ -833,19 +833,19 @@
         <v>236195</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>208969</v>
+        <v>206923</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>266970</v>
+        <v>265092</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1886122386789903</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1668711296172316</v>
+        <v>0.165237016021962</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2131872614664935</v>
+        <v>0.2116876530688312</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>426</v>
@@ -854,19 +854,19 @@
         <v>455973</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>420193</v>
+        <v>417681</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>495123</v>
+        <v>496164</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1922383748376951</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1771533873927176</v>
+        <v>0.1760945929015187</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2087439901283904</v>
+        <v>0.2091829042047073</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>224330</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>196695</v>
+        <v>199608</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>251359</v>
+        <v>251991</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2003597274383168</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1756777792638897</v>
+        <v>0.1782798612948722</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2245013096549602</v>
+        <v>0.2250655873021384</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>235</v>
@@ -904,19 +904,19 @@
         <v>252433</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>223818</v>
+        <v>225383</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>282205</v>
+        <v>284029</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2015787636199172</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.178728214050986</v>
+        <v>0.179977888659799</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2253529381394833</v>
+        <v>0.2268095395591202</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>448</v>
@@ -925,19 +925,19 @@
         <v>476763</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>437288</v>
+        <v>439211</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>517474</v>
+        <v>517644</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2010033317248761</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1843606603714493</v>
+        <v>0.1851717447522745</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2181673856609161</v>
+        <v>0.2182388555051664</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>210573</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>185232</v>
+        <v>186273</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>235945</v>
+        <v>234792</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1880734959207231</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1654398495559122</v>
+        <v>0.1663695827872209</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2107341654826374</v>
+        <v>0.2097041755476421</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>229</v>
@@ -975,19 +975,19 @@
         <v>237045</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>211924</v>
+        <v>210090</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>265853</v>
+        <v>266362</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1892908427825624</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1692306486527948</v>
+        <v>0.1677661040570208</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2122954278132398</v>
+        <v>0.2127016090680648</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>433</v>
@@ -996,19 +996,19 @@
         <v>447619</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>412938</v>
+        <v>411073</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>489853</v>
+        <v>488805</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1887162083113272</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1740950524239261</v>
+        <v>0.1733083714368874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2065220518080534</v>
+        <v>0.2060805499126354</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>173136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>149454</v>
+        <v>150520</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>200427</v>
+        <v>199599</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1546358975404185</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1334848875801068</v>
+        <v>0.1344368927823613</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1790111938313995</v>
+        <v>0.1782716794593622</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>194</v>
@@ -1046,19 +1046,19 @@
         <v>206453</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>181196</v>
+        <v>179992</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>233433</v>
+        <v>232831</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1648616553116209</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1446927120220614</v>
+        <v>0.1437313918625558</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1864063349824181</v>
+        <v>0.1859255179885711</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>356</v>
@@ -1067,19 +1067,19 @@
         <v>379589</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>343526</v>
+        <v>344188</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>416911</v>
+        <v>417289</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1600347049213635</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1448306643760678</v>
+        <v>0.1451098676144026</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1757699606692396</v>
+        <v>0.1759291410193768</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>216436</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>189856</v>
+        <v>192077</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>242594</v>
+        <v>242064</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2395004182417713</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.210087925653905</v>
+        <v>0.2125452954176398</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2684457892093569</v>
+        <v>0.2678595067341942</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>222</v>
@@ -1192,19 +1192,19 @@
         <v>230912</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>202402</v>
+        <v>206502</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>258697</v>
+        <v>257826</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2312948332939326</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2027378582221795</v>
+        <v>0.2068449310734704</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2591262803720265</v>
+        <v>0.2582539432124475</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>435</v>
@@ -1213,19 +1213,19 @@
         <v>447348</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>413453</v>
+        <v>411116</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>488746</v>
+        <v>485414</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2351934709175303</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2173731447083316</v>
+        <v>0.2161445735775103</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2569585974654228</v>
+        <v>0.2552068663635322</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>190854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>165608</v>
+        <v>167219</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>214940</v>
+        <v>214781</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.211191975309507</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1832563292480264</v>
+        <v>0.1850380455137544</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2378452633332958</v>
+        <v>0.2376691574728181</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>172</v>
@@ -1263,19 +1263,19 @@
         <v>183082</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>160721</v>
+        <v>158773</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>209425</v>
+        <v>207778</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1833860309913394</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1609874888721527</v>
+        <v>0.1590365070374535</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2097728877607729</v>
+        <v>0.2081228439462796</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>360</v>
@@ -1284,19 +1284,19 @@
         <v>373936</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>336363</v>
+        <v>338039</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>408253</v>
+        <v>407853</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1965971916054312</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1768430680909118</v>
+        <v>0.1777243029542124</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2146394244886355</v>
+        <v>0.2144289763953272</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>202130</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>179041</v>
+        <v>177459</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>230211</v>
+        <v>231040</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2236702649837046</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1981203954577761</v>
+        <v>0.1963695852953846</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2547433137515339</v>
+        <v>0.2556607171238113</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>211</v>
@@ -1334,19 +1334,19 @@
         <v>224470</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>195656</v>
+        <v>197709</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>250369</v>
+        <v>256004</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2248422655177764</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1959807295159331</v>
+        <v>0.1980375684507609</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2507848193905863</v>
+        <v>0.2564292994477409</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>403</v>
@@ -1355,19 +1355,19 @@
         <v>426600</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>391325</v>
+        <v>392357</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>464824</v>
+        <v>467737</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.224285424609291</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2057393397255541</v>
+        <v>0.2062822855996783</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2443819376396055</v>
+        <v>0.2459129834267052</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>145865</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>124646</v>
+        <v>123509</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>170895</v>
+        <v>167428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1614086048534094</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1379289330849736</v>
+        <v>0.1366705170179973</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1891066064611155</v>
+        <v>0.1852703884199924</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>158</v>
@@ -1405,19 +1405,19 @@
         <v>168979</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>145901</v>
+        <v>146094</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>195467</v>
+        <v>193301</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.169259151636591</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1461427774305484</v>
+        <v>0.1463366964564941</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.195791096275014</v>
+        <v>0.1936214066913551</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>297</v>
@@ -1426,19 +1426,19 @@
         <v>314843</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>283409</v>
+        <v>282805</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>347818</v>
+        <v>349902</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1655291997502496</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1490026802443192</v>
+        <v>0.1486847689108553</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.182865913855536</v>
+        <v>0.1839611716421001</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>148413</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>125068</v>
+        <v>125739</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>170761</v>
+        <v>172205</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1642287366116076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1383953645396012</v>
+        <v>0.1391381628077671</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1889581987152812</v>
+        <v>0.1905554182680932</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>180</v>
@@ -1476,19 +1476,19 @@
         <v>190901</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>167193</v>
+        <v>164695</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>219011</v>
+        <v>218075</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1912177185603606</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1674704101423459</v>
+        <v>0.1649687281817678</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2193743634723521</v>
+        <v>0.2184371669960068</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>324</v>
@@ -1497,19 +1497,19 @@
         <v>339314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>303137</v>
+        <v>307461</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>371403</v>
+        <v>373078</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.178394713117498</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1593745304640453</v>
+        <v>0.1616478054494996</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1952654555914059</v>
+        <v>0.1961459655827982</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>186705</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>161879</v>
+        <v>164918</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210477</v>
+        <v>210047</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2294006853570746</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1988974461347681</v>
+        <v>0.2026321064275965</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2586096500589237</v>
+        <v>0.2580805862875939</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>149</v>
@@ -1622,19 +1622,19 @@
         <v>159211</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>137124</v>
+        <v>136715</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>180685</v>
+        <v>183760</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2073850687756347</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.178614091623345</v>
+        <v>0.1780816706570212</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2353563768436513</v>
+        <v>0.2393618830027155</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>331</v>
@@ -1643,19 +1643,19 @@
         <v>345916</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>311894</v>
+        <v>311970</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>378001</v>
+        <v>380268</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.218714236393624</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1972029628449384</v>
+        <v>0.1972507189922073</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2390007376990413</v>
+        <v>0.2404339854861653</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>146876</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>125408</v>
+        <v>125677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>171995</v>
+        <v>172015</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1804634365605664</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1540869325171585</v>
+        <v>0.1544165051372728</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2113269632751823</v>
+        <v>0.2113515378069958</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>140</v>
@@ -1693,19 +1693,19 @@
         <v>147427</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>127186</v>
+        <v>126762</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>170780</v>
+        <v>170744</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1920354249192479</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1656690811895279</v>
+        <v>0.1651172694350447</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2224545196581615</v>
+        <v>0.2224072535051964</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>281</v>
@@ -1714,19 +1714,19 @@
         <v>294303</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>266130</v>
+        <v>265435</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>330388</v>
+        <v>331065</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1860805158071657</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1682670616617314</v>
+        <v>0.1678277121714947</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2088960659033114</v>
+        <v>0.2093239071561105</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>190577</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>166108</v>
+        <v>167374</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>214574</v>
+        <v>216191</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2341588677233738</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2040932328251795</v>
+        <v>0.2056496766915286</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2636428832325535</v>
+        <v>0.2656300144425885</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>181</v>
@@ -1764,19 +1764,19 @@
         <v>188829</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>166761</v>
+        <v>163796</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>210915</v>
+        <v>213324</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2459643144201269</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2172185328923257</v>
+        <v>0.2133569862543124</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.274732669729792</v>
+        <v>0.2778706744738876</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>368</v>
@@ -1785,19 +1785,19 @@
         <v>379406</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>345428</v>
+        <v>344079</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>414242</v>
+        <v>415621</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2398892683755156</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2184055117031244</v>
+        <v>0.2175525359019645</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2619151739576402</v>
+        <v>0.2627868680903018</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>156667</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>133666</v>
+        <v>133928</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>179046</v>
+        <v>179378</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1924934999273421</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.164232380396272</v>
+        <v>0.1645546217483026</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2199908490994759</v>
+        <v>0.2203977365928872</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>135</v>
@@ -1835,19 +1835,19 @@
         <v>144086</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>122617</v>
+        <v>123299</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>168036</v>
+        <v>166619</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1876834198317474</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1597186554090159</v>
+        <v>0.1606068240025436</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2188798297211957</v>
+        <v>0.2170334094989735</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>284</v>
@@ -1856,19 +1856,19 @@
         <v>300753</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>268849</v>
+        <v>273511</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>331581</v>
+        <v>332973</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1901586720445284</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.169986263160352</v>
+        <v>0.1729344693819907</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2096503945862966</v>
+        <v>0.2105307288188014</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>133056</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>108351</v>
+        <v>113982</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>153802</v>
+        <v>157774</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1634835104316432</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.133129345213665</v>
+        <v>0.1400469729421674</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1889739091245866</v>
+        <v>0.1938534190365732</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>120</v>
@@ -1906,19 +1906,19 @@
         <v>128155</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>107670</v>
+        <v>108449</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>149490</v>
+        <v>153594</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1669317720532431</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1402488782752473</v>
+        <v>0.1412627906887744</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1947215700383632</v>
+        <v>0.2000682170380811</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>240</v>
@@ -1927,19 +1927,19 @@
         <v>261211</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>231236</v>
+        <v>232421</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>291315</v>
+        <v>293900</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1651573073791663</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1462046452019541</v>
+        <v>0.1469539130948593</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1841915108113112</v>
+        <v>0.1858254995959559</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>126632</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106680</v>
+        <v>107420</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>146673</v>
+        <v>149606</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.252591437339371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2127939838792737</v>
+        <v>0.2142698340266264</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2925663655501418</v>
+        <v>0.2984160228221893</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>113</v>
@@ -2052,19 +2052,19 @@
         <v>123585</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>104436</v>
+        <v>105213</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>145599</v>
+        <v>143955</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2559908826632987</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.216327053864996</v>
+        <v>0.2179356040734608</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3015896445246163</v>
+        <v>0.2981849793020582</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>235</v>
@@ -2073,19 +2073,19 @@
         <v>250217</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>223758</v>
+        <v>223070</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>280585</v>
+        <v>278865</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.254259102528959</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2273727376546171</v>
+        <v>0.2266734118584582</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2851177681268374</v>
+        <v>0.2833692486859209</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>70562</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>56180</v>
+        <v>55725</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>86869</v>
+        <v>87185</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1407481925809827</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1120619514778141</v>
+        <v>0.1111534393612562</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1732754535523672</v>
+        <v>0.1739072853036024</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>64</v>
@@ -2123,19 +2123,19 @@
         <v>68921</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>54226</v>
+        <v>53763</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>86205</v>
+        <v>86236</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1427615104536915</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1123219112331106</v>
+        <v>0.1113639035453393</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.178563937648868</v>
+        <v>0.1786263882296611</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>131</v>
@@ -2144,19 +2144,19 @@
         <v>139483</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>117835</v>
+        <v>117896</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>163083</v>
+        <v>159409</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1417358655134635</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1197387052438786</v>
+        <v>0.1198009101760654</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1657175753833031</v>
+        <v>0.1619843658087264</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>98190</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>81949</v>
+        <v>79979</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>118447</v>
+        <v>117196</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1958591781974272</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.163462577004465</v>
+        <v>0.1595333761227791</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2362652702703141</v>
+        <v>0.2337697834180813</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>74</v>
@@ -2194,19 +2194,19 @@
         <v>77513</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>61751</v>
+        <v>62877</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>96438</v>
+        <v>95959</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1605589895144902</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1279092340046007</v>
+        <v>0.1302426022106446</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1997600145243782</v>
+        <v>0.19876798089097</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>162</v>
@@ -2215,19 +2215,19 @@
         <v>175704</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>151675</v>
+        <v>151073</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>201646</v>
+        <v>200041</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1785419719349637</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1541253333643005</v>
+        <v>0.1535133652984794</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2049030859913082</v>
+        <v>0.2032724577350108</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>87965</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>73232</v>
+        <v>70962</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>109264</v>
+        <v>105266</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1754620032212717</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1460751163288665</v>
+        <v>0.1415463034011273</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2179470593791541</v>
+        <v>0.2099724931031151</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>79</v>
@@ -2265,19 +2265,19 @@
         <v>84876</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>68852</v>
+        <v>68410</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>105042</v>
+        <v>103157</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1758102927296789</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1426181503321497</v>
+        <v>0.1417038195343903</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2175812335187171</v>
+        <v>0.213677328038621</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>162</v>
@@ -2286,19 +2286,19 @@
         <v>172841</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>150247</v>
+        <v>148954</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>199101</v>
+        <v>199397</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1756328635333883</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1526741914057846</v>
+        <v>0.1513606440134383</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2023173936560282</v>
+        <v>0.202618073309707</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>117983</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>101243</v>
+        <v>99964</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>139116</v>
+        <v>138935</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2353391886609474</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2019478435227119</v>
+        <v>0.1993963396848702</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2774918956311312</v>
+        <v>0.277131403288398</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>119</v>
@@ -2336,19 +2336,19 @@
         <v>127876</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>108986</v>
+        <v>107094</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>149906</v>
+        <v>148241</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2648783246388408</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.225751205403132</v>
+        <v>0.2218320750367039</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.310511018500352</v>
+        <v>0.3070623884398764</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>225</v>
@@ -2357,19 +2357,19 @@
         <v>245859</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>218042</v>
+        <v>218540</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>274408</v>
+        <v>273388</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2498301964892256</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2215642407617449</v>
+        <v>0.2220697917706274</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2788403716424968</v>
+        <v>0.2778041416456862</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>821591</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>772162</v>
+        <v>767971</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>868318</v>
+        <v>872216</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2460924953974852</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2312868842912576</v>
+        <v>0.2300315861876625</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2600888427401884</v>
+        <v>0.2612564699450515</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>785</v>
@@ -2482,19 +2482,19 @@
         <v>833861</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>786889</v>
+        <v>784754</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>888801</v>
+        <v>882919</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2381710708343145</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2247545853687856</v>
+        <v>0.2241446821576336</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2538631170353838</v>
+        <v>0.2521831959863685</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1578</v>
@@ -2503,19 +2503,19 @@
         <v>1655452</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1586073</v>
+        <v>1582758</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1734520</v>
+        <v>1725449</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2420376491800683</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2318939264783045</v>
+        <v>0.2314093263471187</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2535977934847007</v>
+        <v>0.2522715516764515</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>628069</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>586645</v>
+        <v>585903</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>677312</v>
+        <v>677803</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1881264664315842</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1757188475672821</v>
+        <v>0.1754964830526327</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2028764351937047</v>
+        <v>0.2030235791817507</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>598</v>
@@ -2553,19 +2553,19 @@
         <v>635626</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>593719</v>
+        <v>587338</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>685211</v>
+        <v>683186</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1815501941432986</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1695806067322526</v>
+        <v>0.1677581118190183</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1957128394362263</v>
+        <v>0.1951343706843423</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1198</v>
@@ -2574,19 +2574,19 @@
         <v>1263695</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1195244</v>
+        <v>1191433</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1328905</v>
+        <v>1325619</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1847601814155233</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1747522873131904</v>
+        <v>0.1741950600405383</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1942944158585309</v>
+        <v>0.1938139701084757</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>715228</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>666946</v>
+        <v>673171</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>767452</v>
+        <v>765100</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2142334067949809</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1997713889644509</v>
+        <v>0.2016360791469623</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.229876058531628</v>
+        <v>0.2291717211975986</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>701</v>
@@ -2624,19 +2624,19 @@
         <v>743245</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>687956</v>
+        <v>689871</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>794574</v>
+        <v>788657</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2122888135078327</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1964970464678119</v>
+        <v>0.1970439025575701</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2269496872274311</v>
+        <v>0.2252595069358718</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1381</v>
@@ -2645,19 +2645,19 @@
         <v>1458473</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1387606</v>
+        <v>1388633</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1531889</v>
+        <v>1526719</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2132380016539072</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2028768470392494</v>
+        <v>0.2030269854666433</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2239718772851883</v>
+        <v>0.2232159858786565</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>601070</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>556176</v>
+        <v>553109</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>648221</v>
+        <v>645465</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1800394014178082</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1665922484851412</v>
+        <v>0.1656736723238428</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1941626928495516</v>
+        <v>0.1933373300060992</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>601</v>
@@ -2695,19 +2695,19 @@
         <v>634986</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>586820</v>
+        <v>587572</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>679766</v>
+        <v>683178</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1813674647779509</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1676099567318461</v>
+        <v>0.1678248487786975</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1941575423622787</v>
+        <v>0.1951321134459378</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1176</v>
@@ -2716,19 +2716,19 @@
         <v>1236056</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1172627</v>
+        <v>1173776</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1299066</v>
+        <v>1301438</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1807192150863498</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1714454799558033</v>
+        <v>0.1716134444309415</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1899317473357128</v>
+        <v>0.1902784480245577</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>572588</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>521874</v>
+        <v>524891</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>613182</v>
+        <v>620367</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1715082299581415</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1563179084079659</v>
+        <v>0.1572213929355323</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1836674968509255</v>
+        <v>0.1858196711168973</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>613</v>
@@ -2766,19 +2766,19 @@
         <v>653384</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>609427</v>
+        <v>605994</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>699205</v>
+        <v>698901</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1866224567366032</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1740671663972782</v>
+        <v>0.1730866645490707</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1997098027942825</v>
+        <v>0.1996229959520233</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1145</v>
@@ -2787,19 +2787,19 @@
         <v>1225972</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1161352</v>
+        <v>1162226</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1287381</v>
+        <v>1292737</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1792449526641513</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1697969961923083</v>
+        <v>0.1699248566014461</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1882232189325956</v>
+        <v>0.1890064198250065</v>
       </c>
     </row>
     <row r="33">
